--- a/docs/画面項目定義書/backup_management.xlsx
+++ b/docs/画面項目定義書/backup_management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC8AB0-EC76-4992-AC6C-328C45DCA432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B82C2F-E8FC-4F67-AC76-F794670AB578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="3585" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -239,12 +239,12 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>バックアップ作成モーダルを表示</t>
+    <t>バックアップ作成モーダルへ遷移</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1116,21 +1116,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1150,7 +1150,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1159,7 +1159,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1168,7 +1168,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="39" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1203,7 +1203,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="31">
         <v>7</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -1387,32 +1387,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="31">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="C24" s="23"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="E25" s="25"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="21">
         <v>18</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="E26" s="25"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="21">
         <v>19</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="21">
         <v>21</v>
       </c>

--- a/docs/画面項目定義書/backup_management.xlsx
+++ b/docs/画面項目定義書/backup_management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B82C2F-E8FC-4F67-AC76-F794670AB578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34CE7AC-CC86-4C93-81EB-D07386048B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="3585" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>日本工学院</t>
   </si>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>操作ボタン</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -92,13 +88,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトより</t>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>繰り返しで表示、削除ボタン・編集ボタンを表示</t>
     <rPh sb="8" eb="10">
       <t>サクジョ</t>
@@ -246,6 +235,53 @@
     <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>バックアップエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>バックアップエンティティを取得し、繰り返しで表示</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1116,21 +1152,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1177,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1150,7 +1186,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1159,7 +1195,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1168,7 +1204,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1181,20 +1217,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1203,7 +1239,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1226,127 +1262,127 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13">
       <c r="A10" s="28">
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13">
       <c r="A14" s="31">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="31"/>
-      <c r="E14" s="32" t="s">
-        <v>17</v>
+      <c r="E14" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13">
       <c r="A15" s="31">
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>14</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>15</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
@@ -1354,65 +1390,105 @@
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="31">
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="31">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
+      <c r="B18" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="31">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
+      <c r="B19" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="31">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
+      <c r="B20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="31">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.5">
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1423,7 +1499,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1431,7 +1507,7 @@
       <c r="C24" s="23"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1440,7 +1516,7 @@
       <c r="E25" s="25"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="21">
         <v>18</v>
       </c>
@@ -1449,7 +1525,7 @@
       <c r="E26" s="25"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="21">
         <v>19</v>
       </c>
@@ -1460,7 +1536,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -1471,7 +1547,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="21">
         <v>21</v>
       </c>

--- a/docs/画面項目定義書/backup_management.xlsx
+++ b/docs/画面項目定義書/backup_management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34CE7AC-CC86-4C93-81EB-D07386048B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024A416-5D16-4A23-BA45-E6461691E7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>日本工学院</t>
   </si>
@@ -282,6 +282,22 @@
   </si>
   <si>
     <t>バックアップエンティティを取得し、繰り返しで表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>削除を実行し、確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ヒヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1152,21 +1168,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1193,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1186,7 +1202,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1195,7 +1211,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1204,7 +1220,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1233,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="39" t="s">
         <v>27</v>
       </c>
@@ -1230,7 +1246,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1239,7 +1255,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1277,7 +1293,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1294,7 +1310,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1313,7 +1329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1330,7 +1346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
@@ -1347,7 +1363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
@@ -1366,7 +1382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="31">
         <v>7</v>
       </c>
@@ -1404,7 +1420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -1423,7 +1439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
@@ -1440,7 +1456,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
@@ -1456,10 +1472,10 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
@@ -1478,17 +1494,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="31">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1499,7 +1515,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1507,7 +1523,7 @@
       <c r="C24" s="23"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1516,7 +1532,7 @@
       <c r="E25" s="25"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="21">
         <v>18</v>
       </c>
@@ -1525,7 +1541,7 @@
       <c r="E26" s="25"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="21">
         <v>19</v>
       </c>
@@ -1536,7 +1552,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -1547,7 +1563,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="21">
         <v>21</v>
       </c>
